--- a/growth_working.xlsx
+++ b/growth_working.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Feasibility Report 1" sheetId="2" r:id="rId1"/>
@@ -13,102 +13,102 @@
     <sheet name="Sensitivity Report 1" sheetId="5" r:id="rId4"/>
     <sheet name="Limits Report 1" sheetId="6" r:id="rId5"/>
     <sheet name="Limits Report 2" sheetId="8" r:id="rId6"/>
-    <sheet name="Sensitivity Report 2" sheetId="7" r:id="rId7"/>
-    <sheet name="growth" sheetId="1" r:id="rId8"/>
+    <sheet name="growth" sheetId="1" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="alpha">growth!$B$21</definedName>
-    <definedName name="beta">growth!$B$20</definedName>
-    <definedName name="Capital">growth!$B$7:$D$7</definedName>
+    <definedName name="alpha">growth!$B$23</definedName>
+    <definedName name="beta">growth!$B$22</definedName>
+    <definedName name="Capital">growth!$B$8:$D$8</definedName>
     <definedName name="Consumption">growth!#REF!</definedName>
     <definedName name="Production">growth!#REF!</definedName>
-    <definedName name="solver_adj" localSheetId="7" hidden="1">growth!$C$8:$J$8</definedName>
-    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.000001</definedName>
-    <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="7" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="7" hidden="1">growth!$C$10:$J$10</definedName>
-    <definedName name="solver_lhs10" localSheetId="7" hidden="1">growth!$I$7</definedName>
-    <definedName name="solver_lhs11" localSheetId="7" hidden="1">growth!$I$8</definedName>
-    <definedName name="solver_lhs12" localSheetId="7" hidden="1">growth!$J$7</definedName>
-    <definedName name="solver_lhs13" localSheetId="7" hidden="1">growth!$J$8</definedName>
-    <definedName name="solver_lhs14" localSheetId="7" hidden="1">growth!$K$11</definedName>
-    <definedName name="solver_lhs15" localSheetId="7" hidden="1">growth!$K$11</definedName>
-    <definedName name="solver_lhs16" localSheetId="7" hidden="1">growth!$J$9</definedName>
-    <definedName name="solver_lhs17" localSheetId="7" hidden="1">growth!$K$11</definedName>
-    <definedName name="solver_lhs18" localSheetId="7" hidden="1">growth!$K$7</definedName>
-    <definedName name="solver_lhs2" localSheetId="7" hidden="1">growth!$C$7:$J$7</definedName>
-    <definedName name="solver_lhs3" localSheetId="7" hidden="1">growth!$C$8:$J$8</definedName>
-    <definedName name="solver_lhs4" localSheetId="7" hidden="1">growth!$D$14:$J$14</definedName>
-    <definedName name="solver_lhs5" localSheetId="7" hidden="1">growth!$K$11</definedName>
-    <definedName name="solver_lhs6" localSheetId="7" hidden="1">growth!$K$11</definedName>
-    <definedName name="solver_lhs7" localSheetId="7" hidden="1">growth!$K$11</definedName>
-    <definedName name="solver_lhs8" localSheetId="7" hidden="1">growth!$H$6</definedName>
-    <definedName name="solver_lhs9" localSheetId="7" hidden="1">growth!$H$8</definedName>
-    <definedName name="solver_lin" localSheetId="7" hidden="1">2</definedName>
-    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="7" hidden="1">5</definedName>
-    <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
-    <definedName name="solver_oldobj" localSheetId="7" hidden="1">7.71610093804762</definedName>
-    <definedName name="solver_opt" localSheetId="7" hidden="1">growth!$L$17</definedName>
-    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="7" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="7" hidden="1">3</definedName>
-    <definedName name="solver_rel10" localSheetId="7" hidden="1">3</definedName>
-    <definedName name="solver_rel11" localSheetId="7" hidden="1">1</definedName>
-    <definedName name="solver_rel12" localSheetId="7" hidden="1">3</definedName>
-    <definedName name="solver_rel13" localSheetId="7" hidden="1">1</definedName>
-    <definedName name="solver_rel14" localSheetId="7" hidden="1">3</definedName>
-    <definedName name="solver_rel15" localSheetId="7" hidden="1">3</definedName>
-    <definedName name="solver_rel16" localSheetId="7" hidden="1">2</definedName>
-    <definedName name="solver_rel17" localSheetId="7" hidden="1">3</definedName>
-    <definedName name="solver_rel18" localSheetId="7" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="7" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="7" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="7" hidden="1">1</definedName>
-    <definedName name="solver_rel5" localSheetId="7" hidden="1">3</definedName>
-    <definedName name="solver_rel6" localSheetId="7" hidden="1">3</definedName>
-    <definedName name="solver_rel7" localSheetId="7" hidden="1">3</definedName>
-    <definedName name="solver_rel8" localSheetId="7" hidden="1">3</definedName>
-    <definedName name="solver_rel9" localSheetId="7" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="7" hidden="1">growth!$B$24</definedName>
-    <definedName name="solver_rhs10" localSheetId="7" hidden="1">0</definedName>
-    <definedName name="solver_rhs11" localSheetId="7" hidden="1">growth!$I$4</definedName>
-    <definedName name="solver_rhs12" localSheetId="7" hidden="1">0</definedName>
-    <definedName name="solver_rhs13" localSheetId="7" hidden="1">growth!$J$5</definedName>
-    <definedName name="solver_rhs14" localSheetId="7" hidden="1">growth!$M$11</definedName>
-    <definedName name="solver_rhs15" localSheetId="7" hidden="1">growth!$M$11</definedName>
-    <definedName name="solver_rhs16" localSheetId="7" hidden="1">growth!$J$5</definedName>
-    <definedName name="solver_rhs17" localSheetId="7" hidden="1">growth!$M$11</definedName>
-    <definedName name="solver_rhs18" localSheetId="7" hidden="1">growth!$M$11</definedName>
-    <definedName name="solver_rhs2" localSheetId="7" hidden="1">0</definedName>
-    <definedName name="solver_rhs3" localSheetId="7" hidden="1">growth!$C$5:$J$5</definedName>
-    <definedName name="solver_rhs4" localSheetId="7" hidden="1">growth!$B$25</definedName>
-    <definedName name="solver_rhs5" localSheetId="7" hidden="1">growth!$L$11</definedName>
-    <definedName name="solver_rhs6" localSheetId="7" hidden="1">growth!$L$11</definedName>
-    <definedName name="solver_rhs7" localSheetId="7" hidden="1">growth!$L$11</definedName>
-    <definedName name="solver_rhs8" localSheetId="7" hidden="1">0</definedName>
-    <definedName name="solver_rhs9" localSheetId="7" hidden="1">growth!$H$5</definedName>
-    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="7" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
-    <definedName name="solver_tmp" localSheetId="7" hidden="1">growth!$M$11</definedName>
-    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="7" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="7" hidden="1">2</definedName>
-    <definedName name="tau">growth!$B$19</definedName>
-    <definedName name="theta">growth!$B$22</definedName>
-    <definedName name="Time_Period">growth!$B$5:$D$7</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">growth!$C$9:$J$9</definedName>
+    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">growth!$B$10:$J$10</definedName>
+    <definedName name="solver_lhs10" localSheetId="6" hidden="1">growth!$I$8</definedName>
+    <definedName name="solver_lhs11" localSheetId="6" hidden="1">growth!$I$9</definedName>
+    <definedName name="solver_lhs12" localSheetId="6" hidden="1">growth!$J$8</definedName>
+    <definedName name="solver_lhs13" localSheetId="6" hidden="1">growth!$J$9</definedName>
+    <definedName name="solver_lhs14" localSheetId="6" hidden="1">growth!$K$10</definedName>
+    <definedName name="solver_lhs15" localSheetId="6" hidden="1">growth!$K$10</definedName>
+    <definedName name="solver_lhs16" localSheetId="6" hidden="1">growth!$J$11</definedName>
+    <definedName name="solver_lhs17" localSheetId="6" hidden="1">growth!$K$10</definedName>
+    <definedName name="solver_lhs18" localSheetId="6" hidden="1">growth!$K$8</definedName>
+    <definedName name="solver_lhs2" localSheetId="6" hidden="1">growth!$B$10:$J$10</definedName>
+    <definedName name="solver_lhs3" localSheetId="6" hidden="1">growth!$C$11:$J$11</definedName>
+    <definedName name="solver_lhs4" localSheetId="6" hidden="1">growth!$C$12:$J$12</definedName>
+    <definedName name="solver_lhs5" localSheetId="6" hidden="1">growth!$C$9:$J$9</definedName>
+    <definedName name="solver_lhs6" localSheetId="6" hidden="1">growth!$C$9:$J$9</definedName>
+    <definedName name="solver_lhs7" localSheetId="6" hidden="1">growth!$D$15:$J$15</definedName>
+    <definedName name="solver_lhs8" localSheetId="6" hidden="1">growth!$K$10</definedName>
+    <definedName name="solver_lhs9" localSheetId="6" hidden="1">growth!$H$9</definedName>
+    <definedName name="solver_lin" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">8</definedName>
+    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_oldobj" localSheetId="6" hidden="1">7.71610093804762</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">growth!$L$19</definedName>
+    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel10" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel11" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel12" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel13" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel14" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel15" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel16" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel17" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel18" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel9" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rhs10" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rhs11" localSheetId="6" hidden="1">growth!$I$5</definedName>
+    <definedName name="solver_rhs12" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rhs13" localSheetId="6" hidden="1">growth!$J$6</definedName>
+    <definedName name="solver_rhs14" localSheetId="6" hidden="1">growth!#REF!</definedName>
+    <definedName name="solver_rhs15" localSheetId="6" hidden="1">growth!#REF!</definedName>
+    <definedName name="solver_rhs16" localSheetId="6" hidden="1">growth!$J$6</definedName>
+    <definedName name="solver_rhs17" localSheetId="6" hidden="1">growth!#REF!</definedName>
+    <definedName name="solver_rhs18" localSheetId="6" hidden="1">growth!#REF!</definedName>
+    <definedName name="solver_rhs2" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="6" hidden="1">growth!$B$26</definedName>
+    <definedName name="solver_rhs5" localSheetId="6" hidden="1">growth!$C$11:$J$11</definedName>
+    <definedName name="solver_rhs6" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rhs7" localSheetId="6" hidden="1">growth!$B$27</definedName>
+    <definedName name="solver_rhs8" localSheetId="6" hidden="1">growth!$L$10</definedName>
+    <definedName name="solver_rhs9" localSheetId="6" hidden="1">growth!$H$6</definedName>
+    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_tmp" localSheetId="6" hidden="1">growth!#REF!</definedName>
+    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="tau">growth!$B$21</definedName>
+    <definedName name="theta">growth!$B$24</definedName>
+    <definedName name="Time_Period">growth!$B$6:$D$8</definedName>
   </definedNames>
   <calcPr calcId="140001" iterate="1" iterateCount="1000" concurrentCalc="0"/>
   <extLst>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="116">
   <si>
     <t>Time Period</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Consumption</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Target</t>
   </si>
   <si>
@@ -209,9 +206,6 @@
     <t>Capital:Labor</t>
   </si>
   <si>
-    <t>Solow/Labor</t>
-  </si>
-  <si>
     <t>Worksheet: [growth_working.xlsx]growth</t>
   </si>
   <si>
@@ -221,9 +215,6 @@
     <t>K/L</t>
   </si>
   <si>
-    <t>CapGrowth</t>
-  </si>
-  <si>
     <t>K+C</t>
   </si>
   <si>
@@ -422,9 +413,6 @@
     <t>Savings</t>
   </si>
   <si>
-    <t>S+C</t>
-  </si>
-  <si>
     <t>Norm C</t>
   </si>
   <si>
@@ -458,100 +446,28 @@
     <t>Weighted Norm C</t>
   </si>
   <si>
-    <t>Report Created: 9/12/2013 9:43:50 AM</t>
-  </si>
-  <si>
     <t>$C$8</t>
   </si>
   <si>
-    <t>$D$8</t>
-  </si>
-  <si>
-    <t>$E$8</t>
-  </si>
-  <si>
-    <t>$F$8</t>
-  </si>
-  <si>
-    <t>$G$8</t>
-  </si>
-  <si>
-    <t>$H$8</t>
-  </si>
-  <si>
-    <t>$I$8</t>
-  </si>
-  <si>
-    <t>$J$8</t>
-  </si>
-  <si>
-    <t>$C$7</t>
-  </si>
-  <si>
-    <t>$D$7</t>
-  </si>
-  <si>
-    <t>$E$7</t>
-  </si>
-  <si>
-    <t>$F$7</t>
-  </si>
-  <si>
-    <t>$G$7</t>
-  </si>
-  <si>
-    <t>$H$7</t>
-  </si>
-  <si>
-    <t>$I$7</t>
-  </si>
-  <si>
-    <t>$J$7</t>
-  </si>
-  <si>
-    <t>$D$14</t>
-  </si>
-  <si>
-    <t>$E$14</t>
-  </si>
-  <si>
-    <t>$F$14</t>
-  </si>
-  <si>
-    <t>$G$14</t>
-  </si>
-  <si>
-    <t>$H$14</t>
-  </si>
-  <si>
-    <t>$I$14</t>
-  </si>
-  <si>
-    <t>$J$14</t>
-  </si>
-  <si>
-    <t>$K$10</t>
-  </si>
-  <si>
-    <t>$C$8:$J$8</t>
-  </si>
-  <si>
-    <t>$C$7:$J$7 &gt;= 0</t>
-  </si>
-  <si>
-    <t>$C$8:$J$8 &lt;= $C$5:$J$5</t>
-  </si>
-  <si>
-    <t>$C$9:$J$9 &gt;= $B$22</t>
-  </si>
-  <si>
-    <t>$D$14:$J$14 &lt;= $B$23</t>
-  </si>
-  <si>
     <t>Report Created: 9/12/2013 9:43:55 AM</t>
   </si>
   <si>
     <t>Total U</t>
+  </si>
+  <si>
+    <t>Y+K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital </t>
+  </si>
+  <si>
+    <t>Expanded by Michael Lee</t>
+  </si>
+  <si>
+    <t>Solow:Labor</t>
+  </si>
+  <si>
+    <t>Utility:C</t>
   </si>
 </sst>
 </file>
@@ -562,7 +478,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000;[Red]0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Geneva"/>
@@ -599,6 +515,14 @@
       <name val="Geneva"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -609,6 +533,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -651,7 +582,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -724,6 +655,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -735,6 +675,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,18 +703,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -799,39 +762,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="6"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="7"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="7" xfId="7" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="8"/>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="8" xfId="8" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="7"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="8"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="8" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="10"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="10" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="9"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="6"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="23">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="8" builtinId="23"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Heading 3" xfId="6" builtinId="18"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Input" xfId="6" builtinId="20"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Input" xfId="7" builtinId="20"/>
+    <cellStyle name="Linked Cell" xfId="9" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="7" builtinId="21"/>
+    <cellStyle name="Output" xfId="8" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -920,6 +897,29 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Population Growth</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> v. Period</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -931,7 +931,7 @@
           <c:order val="0"/>
           <c:yVal>
             <c:numRef>
-              <c:f>growth!$B$27:$J$27</c:f>
+              <c:f>growth!$B$28:$J$28</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
@@ -985,6 +985,25 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Period</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1000,6 +1019,25 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Population </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1035,6 +1073,29 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mean Location of Consumption</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> v. Depreciation Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1044,38 +1105,44 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>growth!$J$23:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>growth!$B$31:$J$31</c:f>
+              <c:f>growth!$K$23:$K$26</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>1.922</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.696479555429939</c:v>
+                  <c:v>1.828</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.996035076820964</c:v>
+                  <c:v>1.787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.814894239323883</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.30695291419248</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0256610769563</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.9794703331034</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.00589931227755</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36.45312525562046</c:v>
+                  <c:v>1.674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1090,36 +1157,82 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="648276360"/>
-        <c:axId val="635441368"/>
+        <c:axId val="881068648"/>
+        <c:axId val="653011624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="648276360"/>
+        <c:axId val="881068648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+          <c:min val="0.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Depreciation Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635441368"/>
+        <c:crossAx val="653011624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="635441368"/>
+        <c:axId val="653011624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Location of Normalized Consumption</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="648276360"/>
+        <c:crossAx val="881068648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1150,48 +1263,82 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mean</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Location of Consumption v. Beta</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:explosion val="25"/>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>growth!$C$8:$J$8</c:f>
+              <c:f>growth!$F$23:$F$26</c:f>
               <c:numCache>
-                <c:formatCode>0.000;[Red]0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.173324472144634</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.404953820844217</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.520304738749582</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.116049922282622</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.67167106384776</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45.9990401618513</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>146.7773658347054</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>444.1029696432287</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>growth!$G$23:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.679</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.766</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.990636677716556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1200,26 +1347,88 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:axId val="845666904"/>
+        <c:axId val="845698056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="845666904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Beta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="845698056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="845698056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Normalized Mean</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Location of Consumption</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="845666904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1246,6 +1455,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Technology v. Period</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1257,33 +1485,36 @@
           <c:order val="0"/>
           <c:yVal>
             <c:numRef>
-              <c:f>growth!$C$13:$J$13</c:f>
+              <c:f>growth!$B$32:$J$32</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.116445023646022</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.156437643393825</c:v>
+                  <c:v>0.507853211802995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.256437644131188</c:v>
+                  <c:v>0.996035076820964</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.356437650998946</c:v>
+                  <c:v>1.814894239323883</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.376219575718806</c:v>
+                  <c:v>3.30695291419248</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4762195749922</c:v>
+                  <c:v>6.0256610769563</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.576219574603086</c:v>
+                  <c:v>10.9794703331034</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.676219574472247</c:v>
+                  <c:v>20.00589931227755</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.45312525562046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,11 +1529,161 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="655212040"/>
-        <c:axId val="652445768"/>
+        <c:axId val="844351304"/>
+        <c:axId val="928868456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="655212040"/>
+        <c:axId val="844351304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Period</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="928868456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="928868456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Technolgy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="844351304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:yVal>
+            <c:numRef>
+              <c:f>growth!$C$14:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.154237666532857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.143011979107433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.243012009747479</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.343012022209917</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.370204288728076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.392206283487866</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.458698556810232</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.558698559477626</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="655471992"/>
+        <c:axId val="823745496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="655471992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1311,12 +1692,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="652445768"/>
+        <c:crossAx val="823745496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="652445768"/>
+        <c:axId val="823745496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1327,7 +1708,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="655212040"/>
+        <c:crossAx val="655471992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1344,20 +1725,152 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Utility</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Normalized by Consumption (beta = .9)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>growth!$C$17:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.177730568056433</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.192560150700043</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.169200112525452</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.596685086086453</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32822814940672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.173809341643178</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0866915711766059</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0434827615272512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>58615</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>98670</xdr:rowOff>
+      <xdr:colOff>241494</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>996461</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>18562</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>894079</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>69362</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1378,16 +1891,81 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1010919</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>116644</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447040</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>693615</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>36536</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1087120</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>934720</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>195580</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>759655</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>100036</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1409,19 +1987,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>231140</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>55880</xdr:rowOff>
+      <xdr:colOff>40640</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1438,20 +2016,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>619760</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>116840</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>96520</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>96520</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="5" name="Chart 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1808,42 +2386,42 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14" thickBot="1">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14" thickBot="1">
       <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1875,42 +2453,42 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14" thickBot="1">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14" thickBot="1">
       <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1942,93 +2520,93 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A6" s="5"/>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A8" s="5"/>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" collapsed="1">
       <c r="A9" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" hidden="1" outlineLevel="1">
       <c r="B10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" hidden="1" outlineLevel="1">
       <c r="B11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" hidden="1" outlineLevel="1">
       <c r="B12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" collapsed="1"/>
     <row r="14" spans="1:5" ht="14" thickBot="1">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14" thickBot="1">
       <c r="B15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="D15" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14" thickBot="1">
       <c r="B16" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D16" s="12">
         <v>110.08175376767383</v>
@@ -2039,29 +2617,29 @@
     </row>
     <row r="19" spans="1:6" ht="14" thickBot="1">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14" thickBot="1">
       <c r="B20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="D20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="B21" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -2070,10 +2648,10 @@
     </row>
     <row r="22" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B22" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="13">
         <v>6.0407680221960236</v>
@@ -2082,15 +2660,15 @@
         <v>6.0407680221960236</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B23" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="13">
         <v>5.6256419371765078</v>
@@ -2099,15 +2677,15 @@
         <v>5.6256419371765078</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B24" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="13">
         <v>6.2755136637170326</v>
@@ -2116,15 +2694,15 @@
         <v>6.2755136637170326</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B25" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="13">
         <v>9.2523212636953929</v>
@@ -2133,15 +2711,15 @@
         <v>9.2523212636953929</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B26" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="13">
         <v>17.605174281248051</v>
@@ -2150,15 +2728,15 @@
         <v>17.605174281248051</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B27" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="13">
         <v>38.456609795870001</v>
@@ -2167,15 +2745,15 @@
         <v>38.456609795870001</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B28" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" s="13">
         <v>88.294315928389452</v>
@@ -2184,15 +2762,15 @@
         <v>88.294315928389452</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14" hidden="1" outlineLevel="1" thickBot="1">
       <c r="B29" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="12">
         <v>205.4735288460445</v>
@@ -2201,7 +2779,7 @@
         <v>205.4735288460445</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:6" collapsed="1">
@@ -2213,44 +2791,44 @@
     </row>
     <row r="33" spans="1:7" ht="14" thickBot="1">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14" thickBot="1">
       <c r="B34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="B35" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D35" s="13">
         <v>1.1978071120598708</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G35" s="11">
         <v>0</v>
@@ -2258,19 +2836,19 @@
     </row>
     <row r="36" spans="1:7">
       <c r="B36" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D36" s="13">
         <v>2.5633616717044303</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G36" s="11">
         <v>0</v>
@@ -2278,19 +2856,19 @@
     </row>
     <row r="37" spans="1:7">
       <c r="B37" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D37" s="13">
         <v>5.7680555322935154</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G37" s="11">
         <v>0</v>
@@ -2298,19 +2876,19 @@
     </row>
     <row r="38" spans="1:7">
       <c r="B38" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D38" s="13">
         <v>14.053212974100088</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G38" s="11">
         <v>0</v>
@@ -2318,19 +2896,19 @@
     </row>
     <row r="39" spans="1:7">
       <c r="B39" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D39" s="13">
         <v>36.670290264341475</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G39" s="11">
         <v>0</v>
@@ -2338,19 +2916,19 @@
     </row>
     <row r="40" spans="1:7">
       <c r="B40" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D40" s="13">
         <v>98.386123350090088</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G40" s="11">
         <v>0</v>
@@ -2358,19 +2936,19 @@
     </row>
     <row r="41" spans="1:7">
       <c r="B41" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D41" s="13">
         <v>263.49132421379073</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G41" s="11">
         <v>0</v>
@@ -2378,19 +2956,19 @@
     </row>
     <row r="42" spans="1:7">
       <c r="B42" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D42" s="13">
         <v>696.83825552131827</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G42" s="11">
         <v>0</v>
@@ -2398,19 +2976,19 @@
     </row>
     <row r="43" spans="1:7" ht="14" thickBot="1">
       <c r="B43" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" s="12">
         <v>205.21915077036317</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G43" s="12">
         <v>5.2191507703631714</v>
@@ -2443,51 +3021,51 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14" thickBot="1">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14" thickBot="1">
       <c r="B8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -2495,10 +3073,10 @@
     </row>
     <row r="10" spans="1:5" hidden="1" outlineLevel="1">
       <c r="B10" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="11">
         <v>6.0407680221960236</v>
@@ -2509,10 +3087,10 @@
     </row>
     <row r="11" spans="1:5" hidden="1" outlineLevel="1">
       <c r="B11" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="11">
         <v>5.6256419371765078</v>
@@ -2523,10 +3101,10 @@
     </row>
     <row r="12" spans="1:5" hidden="1" outlineLevel="1">
       <c r="B12" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="11">
         <v>6.2755136637170326</v>
@@ -2537,10 +3115,10 @@
     </row>
     <row r="13" spans="1:5" hidden="1" outlineLevel="1">
       <c r="B13" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="11">
         <v>9.2523212636953929</v>
@@ -2551,10 +3129,10 @@
     </row>
     <row r="14" spans="1:5" hidden="1" outlineLevel="1">
       <c r="B14" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="11">
         <v>17.605174281248051</v>
@@ -2565,10 +3143,10 @@
     </row>
     <row r="15" spans="1:5" hidden="1" outlineLevel="1">
       <c r="B15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="11">
         <v>38.456609795870001</v>
@@ -2579,10 +3157,10 @@
     </row>
     <row r="16" spans="1:5" hidden="1" outlineLevel="1">
       <c r="B16" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" s="11">
         <v>88.294315928389452</v>
@@ -2593,10 +3171,10 @@
     </row>
     <row r="17" spans="1:5" ht="14" hidden="1" outlineLevel="1" thickBot="1">
       <c r="B17" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="9">
         <v>205.4735288460445</v>
@@ -2613,39 +3191,39 @@
     </row>
     <row r="20" spans="1:5" ht="14" thickBot="1">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14" thickBot="1">
       <c r="B22" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>23</v>
-      </c>
       <c r="D22" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="B23" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D23" s="11">
         <v>1.1978071120598708</v>
@@ -2656,10 +3234,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="B24" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D24" s="11">
         <v>2.5633616717044303</v>
@@ -2670,10 +3248,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="B25" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D25" s="11">
         <v>5.7680555322935154</v>
@@ -2684,10 +3262,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="B26" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D26" s="11">
         <v>14.053212974100088</v>
@@ -2698,10 +3276,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="B27" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D27" s="11">
         <v>36.670290264341475</v>
@@ -2712,10 +3290,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D28" s="11">
         <v>98.386123350090088</v>
@@ -2726,10 +3304,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="B29" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D29" s="11">
         <v>263.49132421379073</v>
@@ -2740,10 +3318,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="B30" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D30" s="11">
         <v>696.83825552131827</v>
@@ -2754,10 +3332,10 @@
     </row>
     <row r="31" spans="1:5" ht="14" thickBot="1">
       <c r="B31" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" s="9">
         <v>205.21915077036317</v>
@@ -2800,44 +3378,44 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14" thickBot="1"/>
     <row r="6" spans="1:10">
       <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="14" thickBot="1">
       <c r="B7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14" thickBot="1">
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" s="12">
         <v>110.08175376767383</v>
@@ -2847,51 +3425,51 @@
     <row r="11" spans="1:10">
       <c r="B11" s="17"/>
       <c r="C11" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D11" s="17"/>
       <c r="F11" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>98</v>
-      </c>
       <c r="J11" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14" thickBot="1">
       <c r="B12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>23</v>
-      </c>
       <c r="D12" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="13">
         <v>6.0407680221960236</v>
@@ -2911,10 +3489,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="13">
         <v>5.6256419371765078</v>
@@ -2934,10 +3512,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="13">
         <v>6.2755136637170326</v>
@@ -2957,10 +3535,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" s="13">
         <v>9.2523212636953929</v>
@@ -2980,10 +3558,10 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="13">
         <v>17.605174281248051</v>
@@ -3003,10 +3581,10 @@
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="13">
         <v>38.456609795870001</v>
@@ -3026,10 +3604,10 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="13">
         <v>88.294315928389452</v>
@@ -3049,10 +3627,10 @@
     </row>
     <row r="20" spans="2:10" ht="14" thickBot="1">
       <c r="B20" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="12">
         <v>205.4735288460445</v>
@@ -3104,41 +3682,41 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14" thickBot="1"/>
     <row r="6" spans="1:10">
       <c r="B6" s="25"/>
       <c r="C6" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:10" ht="14" thickBot="1">
       <c r="B7" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" s="26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14" thickBot="1">
       <c r="B8" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>1</v>
@@ -3151,62 +3729,62 @@
     <row r="11" spans="1:10">
       <c r="B11" s="25"/>
       <c r="C11" s="25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D11" s="25"/>
       <c r="F11" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>98</v>
-      </c>
       <c r="J11" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14" thickBot="1">
       <c r="B12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>23</v>
-      </c>
       <c r="D12" s="26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14" thickBot="1">
       <c r="B13" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="27">
         <v>6.4046241839365609E-2</v>
       </c>
-      <c r="F13" s="29" t="e">
+      <c r="F13" s="27" t="e">
         <v>#N/A</v>
       </c>
       <c r="G13" s="12" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I13" s="29" t="e">
+      <c r="I13" s="27" t="e">
         <v>#N/A</v>
       </c>
       <c r="J13" s="12" t="e">
@@ -3225,866 +3803,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14" thickBot="1">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14" thickBot="1">
-      <c r="B8" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="B10" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11">
-        <v>6.4046241839365609E-2</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="B11" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0.20470446935829653</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="B12" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1.0674540498179679</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="B13" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="11">
-        <v>4.0796641681517452</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="B14" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11">
-        <v>14.227262327693042</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="B15" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="11">
-        <v>42.722856564722768</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="B16" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="11">
-        <v>139.80307303125616</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="B17" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9">
-        <v>431.50441804941204</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" collapsed="1">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="20" spans="1:5" ht="14" thickBot="1">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14" thickBot="1">
-      <c r="B22" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-    </row>
-    <row r="24" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="B24" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="11">
-        <v>1.1041842138874098</v>
-      </c>
-      <c r="E24" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="B25" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="11">
-        <v>2.3524078866359344</v>
-      </c>
-      <c r="E25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="B26" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="11">
-        <v>4.8611011898414267</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="B27" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="11">
-        <v>10.48780852952158</v>
-      </c>
-      <c r="E27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="B28" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="11">
-        <v>23.207682302046329</v>
-      </c>
-      <c r="E28" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="B29" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="11">
-        <v>55.446769820851578</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="B30" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="11">
-        <v>121.41623937572299</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="B31" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="11">
-        <v>247.82229268307731</v>
-      </c>
-      <c r="E31" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" collapsed="1">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B34" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="11">
-        <v>6.4046241839365609E-2</v>
-      </c>
-      <c r="E34" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B35" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="11">
-        <v>0.20470446935829653</v>
-      </c>
-      <c r="E35" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B36" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="11">
-        <v>1.0674540498179679</v>
-      </c>
-      <c r="E36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B37" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="11">
-        <v>4.0796641681517452</v>
-      </c>
-      <c r="E37" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B38" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="11">
-        <v>14.227262327693042</v>
-      </c>
-      <c r="E38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B39" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="11">
-        <v>42.722856564722768</v>
-      </c>
-      <c r="E39" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B40" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="11">
-        <v>139.80307303125616</v>
-      </c>
-      <c r="E40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B41" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="11">
-        <v>431.50441804941204</v>
-      </c>
-      <c r="E41" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" collapsed="1">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B44" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="11">
-        <v>4.2112798241885425</v>
-      </c>
-      <c r="E44" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B45" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="11">
-        <v>3.1893949097881724</v>
-      </c>
-      <c r="E45" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B46" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="11">
-        <v>2.9999999999960481</v>
-      </c>
-      <c r="E46" s="11">
-        <v>-8.1713333642093549</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="11">
-        <v>3.561489853581731</v>
-      </c>
-      <c r="E47" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B48" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="11">
-        <v>5.1965295555869897</v>
-      </c>
-      <c r="E48" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B49" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="11">
-        <v>8.735899898637161</v>
-      </c>
-      <c r="E49" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B50" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50" s="11">
-        <v>16.669519112052303</v>
-      </c>
-      <c r="E50" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="11">
-        <v>32.051359700166685</v>
-      </c>
-      <c r="E51" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" collapsed="1">
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-    </row>
-    <row r="53" spans="2:5">
-      <c r="B53" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-    </row>
-    <row r="54" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B54" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="11">
-        <v>4.2112798241885425</v>
-      </c>
-      <c r="E54" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B55" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D55" s="11">
-        <v>3.1893949097881724</v>
-      </c>
-      <c r="E55" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="11">
-        <v>2.9999999999960481</v>
-      </c>
-      <c r="E56" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="11">
-        <v>3.561489853581731</v>
-      </c>
-      <c r="E57" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B58" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="11">
-        <v>5.1965295555869897</v>
-      </c>
-      <c r="E58" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B59" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="11">
-        <v>8.735899898637161</v>
-      </c>
-      <c r="E59" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B60" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D60" s="11">
-        <v>16.669519112052303</v>
-      </c>
-      <c r="E60" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B61" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="11">
-        <v>32.051359700166685</v>
-      </c>
-      <c r="E61" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" collapsed="1">
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-    </row>
-    <row r="63" spans="2:5">
-      <c r="B63" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-    </row>
-    <row r="64" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B64" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D64" s="11">
-        <v>2.5229687891056146E-2</v>
-      </c>
-      <c r="E64" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B65" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D65" s="11">
-        <v>0.10000000001299766</v>
-      </c>
-      <c r="E65" s="11">
-        <v>5.0471183661321586</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B66" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D66" s="11">
-        <v>9.999999993474154E-2</v>
-      </c>
-      <c r="E66" s="11">
-        <v>2.251208969122946</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B67" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D67" s="11">
-        <v>9.999999980809543E-2</v>
-      </c>
-      <c r="E67" s="11">
-        <v>0.47119607492681725</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B68" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D68" s="11">
-        <v>5.5141264566028081E-2</v>
-      </c>
-      <c r="E68" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B69" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D69" s="11">
-        <v>0.10000000002986015</v>
-      </c>
-      <c r="E69" s="11">
-        <v>0.28428581208467307</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B70" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D70" s="11">
-        <v>0.10000000001747111</v>
-      </c>
-      <c r="E70" s="11">
-        <v>1.5425609774418221</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" collapsed="1">
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-    </row>
-    <row r="72" spans="2:5" ht="14" thickBot="1">
-      <c r="B72" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72" s="9">
-        <v>400.00000014151425</v>
-      </c>
-      <c r="E72" s="9">
-        <v>-3.8685115253344705E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4103,774 +3825,882 @@
     <col min="13" max="13" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1">
+      <c r="A5" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="32">
+        <v>0</v>
+      </c>
+      <c r="C5" s="32">
+        <v>1</v>
+      </c>
+      <c r="D5" s="32">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
+      <c r="E5" s="32">
+        <v>3</v>
+      </c>
+      <c r="F5" s="32">
+        <v>4</v>
+      </c>
+      <c r="G5" s="32">
+        <v>5</v>
+      </c>
+      <c r="H5" s="32">
+        <v>6</v>
+      </c>
+      <c r="I5" s="32">
+        <v>7</v>
+      </c>
+      <c r="J5" s="32">
+        <v>8</v>
+      </c>
+      <c r="K5" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15">
+      <c r="A6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="21">
+        <f>B32*B8^alpha *B28^(1-alpha)</f>
         <v>0</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C6" s="21">
+        <f>C32*C10^alpha *C28^(1-alpha)</f>
+        <v>0.9294139556334936</v>
+      </c>
+      <c r="D6" s="21">
+        <f>D32*D10^alpha *D28^(1-alpha)</f>
+        <v>1.821053457854221</v>
+      </c>
+      <c r="E6" s="21">
+        <f>E32*E10^alpha *E28^(1-alpha)</f>
+        <v>4.1257114938673602</v>
+      </c>
+      <c r="F6" s="21">
+        <f>F32*F10^alpha *F28^(1-alpha)</f>
+        <v>10.392078706053466</v>
+      </c>
+      <c r="G6" s="21">
+        <f>G32*G10^alpha *G28^(1-alpha)</f>
+        <v>27.560232602589366</v>
+      </c>
+      <c r="H6" s="21">
+        <f>H32*H10^alpha *H28^(1-alpha)</f>
+        <v>77.02846966660708</v>
+      </c>
+      <c r="I6" s="21">
+        <f>I32*I10^alpha *I28^(1-alpha)</f>
+        <v>216.65256863346184</v>
+      </c>
+      <c r="J6" s="21">
+        <f>J32*J10^alpha *J28^(1-alpha)</f>
+        <v>582.37311147540765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" ht="14" thickBot="1">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C8" s="1">
+        <f>C6-C9</f>
+        <v>0.24623148300851172</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ref="D8:J8" si="0">D6-D9</f>
+        <v>1.275135983644442</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5706865817140727</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5558180356460811</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>14.614297147313181</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>39.632579505350776</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>94.893483757965043</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>190.35520328191046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17" thickTop="1" thickBot="1">
+      <c r="A9" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
+      <c r="B9" s="22">
+        <v>0</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.68318247262498188</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0.54591747420977899</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1.5550249121532873</v>
+      </c>
+      <c r="F9" s="22">
+        <v>4.8362606704073849</v>
+      </c>
+      <c r="G9" s="22">
+        <v>12.945935455276185</v>
+      </c>
+      <c r="H9" s="22">
+        <v>37.395890161256304</v>
+      </c>
+      <c r="I9" s="22">
+        <v>121.7590848754968</v>
+      </c>
+      <c r="J9" s="22">
+        <v>392.01790819349719</v>
+      </c>
+      <c r="L9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3">
+    </row>
+    <row r="10" spans="1:12" ht="17" thickTop="1" thickBot="1">
+      <c r="A10" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="29">
+        <v>7</v>
+      </c>
+      <c r="C10" s="29">
+        <f>B10-theta*B10 +B8</f>
+        <v>3.5</v>
+      </c>
+      <c r="D10" s="29">
+        <f>C10-theta*C10 +C8</f>
+        <v>1.9962314830085117</v>
+      </c>
+      <c r="E10" s="29">
+        <f>D10-theta*D10 +D8</f>
+        <v>2.2732517251486977</v>
+      </c>
+      <c r="F10" s="29">
+        <f>E10-theta*E10 +E8</f>
+        <v>3.7073124442884215</v>
+      </c>
+      <c r="G10" s="29">
+        <f>F10-theta*F10 +F8</f>
+        <v>7.4094742577902917</v>
+      </c>
+      <c r="H10" s="29">
+        <f>G10-theta*G10 +G8</f>
+        <v>18.319034276208328</v>
+      </c>
+      <c r="I10" s="29">
+        <f>H10-theta*H10 +H8</f>
+        <v>48.79209664345494</v>
+      </c>
+      <c r="J10" s="29">
+        <f>I10-theta*I10 +I8</f>
+        <v>119.28953207969252</v>
+      </c>
+      <c r="K10" s="23">
+        <f>J10-theta*J10 +J8</f>
+        <v>249.99996932175674</v>
+      </c>
+      <c r="L10" s="24">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16" thickTop="1">
+      <c r="A11" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21">
+        <f>C10+C6</f>
+        <v>4.4294139556334935</v>
+      </c>
+      <c r="D11" s="21">
+        <f>D10+D6</f>
+        <v>3.8172849408627325</v>
+      </c>
+      <c r="E11" s="21">
+        <f>E10+E6</f>
+        <v>6.3989632190160579</v>
+      </c>
+      <c r="F11" s="21">
+        <f>F10+F6</f>
+        <v>14.099391150341887</v>
+      </c>
+      <c r="G11" s="21">
+        <f>G10+G6</f>
+        <v>34.969706860379659</v>
+      </c>
+      <c r="H11" s="21">
+        <f>H10+H6</f>
+        <v>95.347503942815408</v>
+      </c>
+      <c r="I11" s="21">
+        <f>I10+I6</f>
+        <v>265.44466527691679</v>
+      </c>
+      <c r="J11" s="21">
+        <f>J10+J6</f>
+        <v>701.6626435551002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1">
+        <f>B8/B28</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <f>C10/C28</f>
+        <v>2.6320498901178393</v>
+      </c>
+      <c r="D12" s="1">
+        <f>D10/D28</f>
+        <v>1.140143356093555</v>
+      </c>
+      <c r="E12" s="1">
+        <f>E10/E28</f>
+        <v>0.99999998793083478</v>
+      </c>
+      <c r="F12" s="1">
+        <f>F10/F28</f>
+        <v>1.2797980738934478</v>
+      </c>
+      <c r="G12" s="1">
+        <f>G10/G28</f>
+        <v>2.0544724480181671</v>
+      </c>
+      <c r="H12" s="1">
+        <f>H10/H28</f>
+        <v>4.1892699915335561</v>
+      </c>
+      <c r="I12" s="1">
+        <f>I10/I28</f>
+        <v>9.4566407501898766</v>
+      </c>
+      <c r="J12" s="1">
+        <f>J10/J28</f>
+        <v>20.099615193349127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="1">
+        <f>B6/B28</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <f>C6/C28</f>
+        <v>0.69893254279974948</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D6/D28</f>
+        <v>1.0400908004589526</v>
+      </c>
+      <c r="E13" s="1">
+        <f>E6/E28</f>
+        <v>1.8148942320954782</v>
+      </c>
+      <c r="F13" s="1">
+        <f>F6/F28</f>
+        <v>3.5874403659303891</v>
+      </c>
+      <c r="G13" s="1">
+        <f>G6/G28</f>
+        <v>7.641802450890494</v>
+      </c>
+      <c r="H13" s="1">
+        <f>H6/H28</f>
+        <v>17.615178376906275</v>
+      </c>
+      <c r="I13" s="1">
+        <f>I6/I28</f>
+        <v>41.990519984087108</v>
+      </c>
+      <c r="J13" s="1">
+        <f>J6/J28</f>
+        <v>98.126593637647531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="14" thickBot="1">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="1">
+        <f>C9/C11</f>
+        <v>0.154237666532857</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ref="D14:J14" si="1">D9/D11</f>
+        <v>0.1430119791074328</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24301200974747861</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.34301202220991744</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.37020428872807637</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.39220628348786624</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.45869855681023186</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55869855947762559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17" thickTop="1" thickBot="1">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="24">
+        <f>ABS(D14-C14)</f>
+        <v>1.1225687425424208E-2</v>
+      </c>
+      <c r="E15" s="24">
+        <f t="shared" ref="E15:J15" si="2">ABS(E14-D14)</f>
+        <v>0.10000003064004581</v>
+      </c>
+      <c r="F15" s="24">
+        <f t="shared" si="2"/>
+        <v>0.10000001246243884</v>
+      </c>
+      <c r="G15" s="24">
+        <f t="shared" si="2"/>
+        <v>2.7192266518158925E-2</v>
+      </c>
+      <c r="H15" s="24">
+        <f t="shared" si="2"/>
+        <v>2.2001994759789867E-2</v>
+      </c>
+      <c r="I15" s="24">
+        <f t="shared" si="2"/>
+        <v>6.6492273322365625E-2</v>
+      </c>
+      <c r="J15" s="24">
+        <f t="shared" si="2"/>
+        <v>0.10000000266739373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="14" thickTop="1">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="1">
+        <f>C14*C5</f>
+        <v>0.154237666532857</v>
+      </c>
+      <c r="D16" s="1">
+        <f>D14*D5</f>
+        <v>0.28602395821486559</v>
+      </c>
+      <c r="E16" s="1">
+        <f>E14*E5</f>
+        <v>0.72903602924243582</v>
+      </c>
+      <c r="F16" s="1">
+        <f>F14*F5</f>
+        <v>1.3720480888396698</v>
+      </c>
+      <c r="G16" s="1">
+        <f>G14*G5</f>
+        <v>1.8510214436403818</v>
+      </c>
+      <c r="H16" s="1">
+        <f>H14*H5</f>
+        <v>2.3532377009271972</v>
+      </c>
+      <c r="I16" s="1">
+        <f>I14*I5</f>
+        <v>3.2108898976716231</v>
+      </c>
+      <c r="J16" s="1">
+        <f>J14*J5</f>
+        <v>4.4695884758210047</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="1">
+        <f>C19/C9</f>
+        <v>2.1777305680564338</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" ref="D17:J17" si="3">D19/D9</f>
+        <v>2.1925601507000434</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1692001125254516</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="3"/>
+        <v>0.59668508608645299</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="3"/>
+        <v>0.32822814940671968</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="3"/>
+        <v>0.17380934164317774</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="3"/>
+        <v>8.6691571176605947E-2</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="3"/>
+        <v>4.3482761527251182E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15">
+      <c r="L18" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16" customHeight="1">
+      <c r="A19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="3">
-        <v>5</v>
-      </c>
-      <c r="H4" s="3">
-        <v>6</v>
-      </c>
-      <c r="I4" s="3">
-        <v>7</v>
-      </c>
-      <c r="J4" s="3">
-        <v>8</v>
-      </c>
-      <c r="K4" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15">
-      <c r="A5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="21">
-        <f>B31*B7^alpha *B27^(1-alpha)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="21">
-        <f>C31*C11^alpha *C27^(1-alpha)</f>
-        <v>1.4884661166072559</v>
-      </c>
-      <c r="D5" s="21">
-        <f>D31*D11^alpha *D27^(1-alpha)</f>
-        <v>2.5885957628801797</v>
-      </c>
-      <c r="E5" s="21">
-        <f>E31*E11^alpha *E27^(1-alpha)</f>
-        <v>5.9285552396192873</v>
-      </c>
-      <c r="F5" s="21">
-        <f>F31*F11^alpha *F27^(1-alpha)</f>
-        <v>14.353281444719634</v>
-      </c>
-      <c r="G5" s="21">
-        <f>G31*G11^alpha *G27^(1-alpha)</f>
-        <v>36.33960576805881</v>
-      </c>
-      <c r="H5" s="21">
-        <f>H31*H11^alpha *H27^(1-alpha)</f>
-        <v>96.59208184082874</v>
-      </c>
-      <c r="I5" s="21">
-        <f>I31*I11^alpha *I27^(1-alpha)</f>
-        <v>254.72471311966291</v>
-      </c>
-      <c r="J5" s="21">
-        <f>J31*J11^alpha *J27^(1-alpha)</f>
-        <v>656.74373592309394</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <f>C5-C8</f>
-        <v>1.3151416444626218</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ref="D7:J7" si="0">D5-D8</f>
-        <v>2.1836419420359623</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>4.4082505008697055</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>9.2372315224370105</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>22.667934704211056</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="0"/>
-        <v>50.593041678977443</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>107.94734728495754</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="0"/>
-        <v>212.6407662798652</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15">
-      <c r="A8" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="22">
-        <v>0</v>
-      </c>
-      <c r="C8" s="22">
-        <v>0.17332447214463406</v>
-      </c>
-      <c r="D8" s="22">
-        <v>0.40495382084421727</v>
-      </c>
-      <c r="E8" s="22">
-        <v>1.5203047387495821</v>
-      </c>
-      <c r="F8" s="22">
-        <v>5.116049922282623</v>
-      </c>
-      <c r="G8" s="22">
-        <v>13.671671063847755</v>
-      </c>
-      <c r="H8" s="22">
-        <v>45.999040161851298</v>
-      </c>
-      <c r="I8" s="22">
-        <v>146.77736583470536</v>
-      </c>
-      <c r="J8" s="22">
-        <v>444.10296964322873</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="16" thickBot="1">
-      <c r="A9" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21">
-        <f>C8+C7</f>
-        <v>1.4884661166072559</v>
-      </c>
-      <c r="D9" s="21">
-        <f>D8+D7</f>
-        <v>2.5885957628801797</v>
-      </c>
-      <c r="E9" s="21">
-        <f>E8+E7</f>
-        <v>5.9285552396192873</v>
-      </c>
-      <c r="F9" s="21">
-        <f>F8+F7</f>
-        <v>14.353281444719634</v>
-      </c>
-      <c r="G9" s="21">
-        <f>G8+G7</f>
-        <v>36.33960576805881</v>
-      </c>
-      <c r="H9" s="21">
-        <f>H8+H7</f>
-        <v>96.59208184082874</v>
-      </c>
-      <c r="I9" s="21">
-        <f>I8+I7</f>
-        <v>254.72471311966291</v>
-      </c>
-      <c r="J9" s="21">
-        <f>J8+J7</f>
-        <v>656.74373592309394</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="17" thickTop="1" thickBot="1">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="1">
-        <f>B7/B27</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <f>C11/C27</f>
-        <v>4.2112798241885425</v>
-      </c>
-      <c r="D10" s="1">
-        <f>D11/D27</f>
-        <v>3.3098827965568982</v>
-      </c>
-      <c r="E10" s="1">
-        <f>E11/E27</f>
-        <v>2.9999999999345492</v>
-      </c>
-      <c r="F10" s="1">
-        <f>F11/F27</f>
-        <v>3.4051616648035381</v>
-      </c>
-      <c r="G10" s="1">
-        <f>G11/G27</f>
-        <v>4.7493221963432521</v>
-      </c>
-      <c r="H10" s="1">
-        <f>H11/H27</f>
-        <v>8.3174004889588797</v>
-      </c>
-      <c r="I10" s="1">
-        <f>I11/I27</f>
-        <v>15.445043345763077</v>
-      </c>
-      <c r="J10" s="1">
-        <f>J11/J27</f>
-        <v>28.930322187089093</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="17" thickTop="1" thickBot="1">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1">
-        <f>B11-theta*B11 +B7</f>
-        <v>5.6</v>
-      </c>
-      <c r="D11" s="1">
-        <f>C11-theta*C11 +C7</f>
-        <v>5.7951416444626211</v>
-      </c>
-      <c r="E11" s="1">
-        <f>D11-theta*D11 +D7</f>
-        <v>6.8197552576060598</v>
-      </c>
-      <c r="F11" s="1">
-        <f>E11-theta*E11 +E7</f>
-        <v>9.864054706954553</v>
-      </c>
-      <c r="G11" s="1">
-        <f>F11-theta*F11 +F7</f>
-        <v>17.128475288000651</v>
-      </c>
-      <c r="H11" s="1">
-        <f>G11-theta*G11 +G7</f>
-        <v>36.370714934611577</v>
-      </c>
-      <c r="I11" s="1">
-        <f>H11-theta*H11 +H7</f>
-        <v>79.689613626666699</v>
-      </c>
-      <c r="J11" s="1">
-        <f>I11-theta*I11 +I7</f>
-        <v>171.69903818629092</v>
-      </c>
-      <c r="K11" s="23">
-        <f>J11-theta*J11 +J7</f>
-        <v>349.99999682889791</v>
-      </c>
-      <c r="L11" s="24">
-        <v>350</v>
-      </c>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" ht="14" thickTop="1">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="1">
-        <f>B5/B27</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <f>C5/C27</f>
-        <v>1.1193477367600728</v>
-      </c>
-      <c r="D12" s="1">
-        <f>D5/D27</f>
-        <v>1.4784709517814876</v>
-      </c>
-      <c r="E12" s="1">
-        <f>E5/E27</f>
-        <v>2.6079624629686693</v>
-      </c>
-      <c r="F12" s="1">
-        <f>F5/F27</f>
-        <v>4.954883685431736</v>
-      </c>
-      <c r="G12" s="1">
-        <f>G5/G27</f>
-        <v>10.076115554868553</v>
-      </c>
-      <c r="H12" s="1">
-        <f>H5/H27</f>
-        <v>22.089063417555419</v>
-      </c>
-      <c r="I12" s="1">
-        <f>I5/I27</f>
-        <v>49.369473088444458</v>
-      </c>
-      <c r="J12" s="1">
-        <f>J5/J27</f>
-        <v>110.65762554821742</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="14" thickBot="1">
-      <c r="A13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="1">
-        <f>C8/C5</f>
-        <v>0.11644502364602173</v>
-      </c>
-      <c r="D13" s="1">
-        <f>D8/D5</f>
-        <v>0.15643764339382552</v>
-      </c>
-      <c r="E13" s="1">
-        <f>E8/E5</f>
-        <v>0.25643764413118819</v>
-      </c>
-      <c r="F13" s="1">
-        <f>F8/F5</f>
-        <v>0.35643765099894592</v>
-      </c>
-      <c r="G13" s="1">
-        <f>G8/G5</f>
-        <v>0.37621957571880588</v>
-      </c>
-      <c r="H13" s="1">
-        <f>H8/H5</f>
-        <v>0.47621957499220036</v>
-      </c>
-      <c r="I13" s="1">
-        <f>I8/I5</f>
-        <v>0.57621957460308637</v>
-      </c>
-      <c r="J13" s="1">
-        <f>J8/J5</f>
-        <v>0.67621957447224756</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="17" thickTop="1" thickBot="1">
-      <c r="A14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="24">
-        <f>ABS(D13-C13)</f>
-        <v>3.9992619747803784E-2</v>
-      </c>
-      <c r="E14" s="24">
-        <f t="shared" ref="E14:J14" si="1">ABS(E13-D13)</f>
-        <v>0.10000000073736268</v>
-      </c>
-      <c r="F14" s="24">
-        <f t="shared" si="1"/>
-        <v>0.10000000686775773</v>
-      </c>
-      <c r="G14" s="24">
-        <f t="shared" si="1"/>
-        <v>1.9781924719859956E-2</v>
-      </c>
-      <c r="H14" s="24">
-        <f t="shared" si="1"/>
-        <v>9.999999927339448E-2</v>
-      </c>
-      <c r="I14" s="24">
-        <f t="shared" si="1"/>
-        <v>9.9999999610886015E-2</v>
-      </c>
-      <c r="J14" s="24">
-        <f t="shared" si="1"/>
-        <v>9.9999999869161194E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="14" thickTop="1">
-      <c r="A15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="1">
-        <f>C13*C4</f>
-        <v>0.11644502364602173</v>
-      </c>
-      <c r="D15" s="1">
-        <f>D13*D4</f>
-        <v>0.31287528678765103</v>
-      </c>
-      <c r="E15" s="1">
-        <f>E13*E4</f>
-        <v>0.76931293239356457</v>
-      </c>
-      <c r="F15" s="1">
-        <f>F13*F4</f>
-        <v>1.4257506039957837</v>
-      </c>
-      <c r="G15" s="1">
-        <f>G13*G4</f>
-        <v>1.8810978785940293</v>
-      </c>
-      <c r="H15" s="1">
-        <f>H13*H4</f>
-        <v>2.8573174499532019</v>
-      </c>
-      <c r="I15" s="1">
-        <f>I13*I4</f>
-        <v>4.0335370222216049</v>
-      </c>
-      <c r="J15" s="1">
-        <f>J13*J4</f>
-        <v>5.4097565957779805</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="L16" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15">
-      <c r="A17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8">
-        <f>beta^C4*(1/(1-tau))*C8^(1-tau)</f>
-        <v>0.81599221331506966</v>
-      </c>
-      <c r="D17" s="8">
-        <f>beta^D4*(1/(1-tau))*D8^(1-tau)</f>
-        <v>1.2223199427597511</v>
-      </c>
-      <c r="E17" s="8">
-        <f>beta^E4*(1/(1-tau))*E8^(1-tau)</f>
-        <v>2.3209914859066165</v>
-      </c>
-      <c r="F17" s="8">
-        <f>beta^F4*(1/(1-tau))*F8^(1-tau)</f>
-        <v>4.1725513037279587</v>
-      </c>
-      <c r="G17" s="8">
-        <f>beta^G4*(1/(1-tau))*G8^(1-tau)</f>
-        <v>6.68453458394265</v>
-      </c>
-      <c r="H17" s="8">
-        <f>beta^H4*(1/(1-tau))*H8^(1-tau)</f>
-        <v>12.016025314679297</v>
-      </c>
-      <c r="I17" s="8">
-        <f>beta^I4*(1/(1-tau))*I8^(1-tau)</f>
-        <v>21.034978388602092</v>
-      </c>
-      <c r="J17" s="8">
-        <f>beta^J4*(1/(1-tau))*J8^(1-tau)</f>
-        <v>35.85753572883263</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8">
-        <f>SUM(C17:J17)</f>
-        <v>84.124928961766074</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.5</v>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8">
+        <f>beta^C5*(1/(1-tau))*C9^(1-tau)</f>
+        <v>1.4877873541958009</v>
+      </c>
+      <c r="D19" s="8">
+        <f>beta^D5*(1/(1-tau))*D9^(1-tau)</f>
+        <v>1.1969568995231801</v>
+      </c>
+      <c r="E19" s="8">
+        <f>beta^E5*(1/(1-tau))*E9^(1-tau)</f>
+        <v>1.8181353022695041</v>
+      </c>
+      <c r="F19" s="8">
+        <f>beta^F5*(1/(1-tau))*F9^(1-tau)</f>
+        <v>2.8857246144585571</v>
+      </c>
+      <c r="G19" s="8">
+        <f>beta^G5*(1/(1-tau))*G9^(1-tau)</f>
+        <v>4.2492204368241415</v>
+      </c>
+      <c r="H19" s="8">
+        <f>beta^H5*(1/(1-tau))*H9^(1-tau)</f>
+        <v>6.4997550490885461</v>
+      </c>
+      <c r="I19" s="8">
+        <f>beta^I5*(1/(1-tau))*I9^(1-tau)</f>
+        <v>10.555486372882536</v>
+      </c>
+      <c r="J19" s="8">
+        <f>beta^J5*(1/(1-tau))*J9^(1-tau)</f>
+        <v>17.046021216389686</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8">
+        <f>SUM(C19:J19)</f>
+        <v>45.73908724563195</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="1">
-        <f>SUM(C15:J15)/J4</f>
-        <v>2.1007615991712298</v>
-      </c>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B21" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="C21" s="1" t="s">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>104</v>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="8">
+        <f>SUM(C16:J16)/J5</f>
+        <v>1.8032604076112544</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="1">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.33</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1.9219999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="1">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.679</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" ref="H24:H25" si="4">(G24-G23)/(F24-F23)</f>
+        <v>3.48</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" ref="L24:L25" si="5">(K24-K23)/(J24-J23)</f>
+        <v>-0.93999999999999884</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1.766</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="4"/>
+        <v>0.86999999999999988</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1.7869999999999999</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.41000000000000136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>108</v>
+      <c r="F26" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.9906366777165563</v>
+      </c>
+      <c r="H26" s="1">
+        <f>(G26-G25)/(F26-F25)</f>
+        <v>2.4959630857395148</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="L26" s="1">
+        <f>(K26-K25)/(J26-J25)</f>
+        <v>-1.1300000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1">
-        <f>EXP(0.3*C4*(($B$23-B27)/$B$23))</f>
-        <v>1.3297620281214737</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" ref="D27:J27" si="2">EXP(0.3*D4*(($B$23-C27)/$B$23))</f>
-        <v>1.7508600759190056</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2732517525849487</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" si="2"/>
-        <v>2.896794830304676</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="2"/>
-        <v>3.6065094301643184</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" si="2"/>
-        <v>4.3728464179274162</v>
-      </c>
-      <c r="I27" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1595590794199584</v>
-      </c>
-      <c r="J27" s="1">
-        <f t="shared" si="2"/>
-        <v>5.9349162126827633</v>
-      </c>
-      <c r="K27" s="1">
-        <f>EXP(0.3*K4*(($B$23-J27)/$B$23))</f>
-        <v>6.6777847699682544</v>
+        <v>0.1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
       </c>
       <c r="C28" s="1">
-        <f>C27-B27</f>
-        <v>0.3297620281214737</v>
+        <f>EXP(0.3*C5*(($B$25-B28)/$B$25))</f>
+        <v>1.3297620281214737</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" ref="D28:J29" si="3">D27-C27</f>
-        <v>0.4210980477975319</v>
+        <f>EXP(0.3*D5*(($B$25-C28)/$B$25))</f>
+        <v>1.7508600759190056</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="3"/>
-        <v>0.52239167666594311</v>
+        <f>EXP(0.3*E5*(($B$25-D28)/$B$25))</f>
+        <v>2.2732517525849487</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="3"/>
-        <v>0.62354307771972728</v>
+        <f>EXP(0.3*F5*(($B$25-E28)/$B$25))</f>
+        <v>2.896794830304676</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="3"/>
-        <v>0.70971459985964236</v>
+        <f>EXP(0.3*G5*(($B$25-F28)/$B$25))</f>
+        <v>3.6065094301643184</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="3"/>
-        <v>0.76633698776309789</v>
+        <f>EXP(0.3*H5*(($B$25-G28)/$B$25))</f>
+        <v>4.3728464179274162</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="3"/>
-        <v>0.78671266149254215</v>
+        <f>EXP(0.3*I5*(($B$25-H28)/$B$25))</f>
+        <v>5.1595590794199584</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="3"/>
-        <v>0.77535713326280487</v>
+        <f>EXP(0.3*J5*(($B$25-I28)/$B$25))</f>
+        <v>5.9349162126827633</v>
       </c>
       <c r="K28" s="1">
-        <f>K27-J27</f>
-        <v>0.74286855728549117</v>
+        <f>EXP(0.3*K5*(($B$25-J28)/$B$25))</f>
+        <v>6.6777847699682544</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="C29" s="1">
+        <f>C28-B28</f>
+        <v>0.3297620281214737</v>
       </c>
       <c r="D29" s="1">
-        <f>D28-C28</f>
-        <v>9.13360196760582E-2</v>
+        <f t="shared" ref="D29:J30" si="6">D28-C28</f>
+        <v>0.4210980477975319</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="3"/>
-        <v>0.1012936288684112</v>
+        <f t="shared" si="6"/>
+        <v>0.52239167666594311</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="3"/>
-        <v>0.10115140105378417</v>
+        <f t="shared" si="6"/>
+        <v>0.62354307771972728</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="3"/>
-        <v>8.617152213991508E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.70971459985964236</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="3"/>
-        <v>5.6622387903455529E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.76633698776309789</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="3"/>
-        <v>2.0375673729444266E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.78671266149254215</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.1355528229737288E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.77535713326280487</v>
       </c>
       <c r="K29" s="1">
         <f>K28-J28</f>
+        <v>0.74286855728549117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="1">
+        <f>D29-C29</f>
+        <v>9.13360196760582E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="6"/>
+        <v>0.1012936288684112</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="6"/>
+        <v>0.10115140105378417</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="6"/>
+        <v>8.617152213991508E-2</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="6"/>
+        <v>5.6622387903455529E-2</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="6"/>
+        <v>2.0375673729444266E-2</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.1355528229737288E-2</v>
+      </c>
+      <c r="K30" s="1">
+        <f>K29-J29</f>
         <v>-3.2488575977313694E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
     <row r="31" spans="1:12">
-      <c r="A31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="1">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="1">
         <v>0.3</v>
       </c>
-      <c r="C31" s="1">
-        <f>$B$31*EXP(0.2*C4*C10)</f>
-        <v>0.69647955542993889</v>
-      </c>
-      <c r="D31" s="1">
-        <f>$B$31*EXP(0.6*D4)</f>
+      <c r="C32" s="1">
+        <f>$B$32*EXP(0.2*C5*C12)</f>
+        <v>0.50785321180299547</v>
+      </c>
+      <c r="D32" s="1">
+        <f>$B$32*EXP(0.6*D5)</f>
         <v>0.99603507682096415</v>
       </c>
-      <c r="E31" s="1">
-        <f>$B$31*EXP(0.6*E4)</f>
+      <c r="E32" s="1">
+        <f>$B$32*EXP(0.6*E5)</f>
         <v>1.8148942393238834</v>
       </c>
-      <c r="F31" s="1">
-        <f>$B$31*EXP(0.6*F4)</f>
+      <c r="F32" s="1">
+        <f>$B$32*EXP(0.6*F5)</f>
         <v>3.3069529141924803</v>
       </c>
-      <c r="G31" s="1">
-        <f>$B$31*EXP(0.6*G4)</f>
+      <c r="G32" s="1">
+        <f>$B$32*EXP(0.6*G5)</f>
         <v>6.0256610769563004</v>
       </c>
-      <c r="H31" s="1">
-        <f>$B$31*EXP(0.6*H4)</f>
+      <c r="H32" s="1">
+        <f>$B$32*EXP(0.6*H5)</f>
         <v>10.979470333103391</v>
       </c>
-      <c r="I31" s="1">
-        <f>$B$31*EXP(0.6*I4)</f>
+      <c r="I32" s="1">
+        <f>$B$32*EXP(0.6*I5)</f>
         <v>20.005899312277545</v>
       </c>
-      <c r="J31" s="1">
-        <f>$B$31*EXP(0.6*J4)</f>
+      <c r="J32" s="1">
+        <f>$B$32*EXP(0.6*J5)</f>
         <v>36.453125255620456</v>
       </c>
-      <c r="K31" s="1">
-        <f>$B$31*2^K4</f>
+      <c r="K32" s="1">
+        <f>$B$32*2^K5</f>
         <v>153.6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions gridLines="1" gridLinesSet="0"/>
@@ -4887,4 +4717,25 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>